--- a/data/checked/china/neimenggu/neimengguCaseStatistics_20200325.xlsx
+++ b/data/checked/china/neimenggu/neimengguCaseStatistics_20200325.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200325\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\checked\china\neimenggu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7802F7E3-CD74-4EA7-98CE-D36AC562E8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51971CC-45D6-4940-BE5A-B7C4CE4C6E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
     <sheet name="中国各省市区县数据" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">新数据表!$A$1:$AN$49</definedName>
     <definedName name="阿坝藏族羌族自治州">中国各省市区县数据!$C$2158:$C$2170</definedName>
     <definedName name="阿克苏地区">中国各省市区县数据!$C$2796:$C$2804</definedName>
     <definedName name="阿拉善盟">中国各省市区县数据!$C$419:$C$421</definedName>
@@ -405,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9719" uniqueCount="3399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9730" uniqueCount="3399">
   <si>
     <t>统计级别</t>
   </si>
@@ -11244,49 +11245,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.17578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.5859375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="21.8203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="5.1171875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.52734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.1171875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.46875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.64453125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.87890625" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.64453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1171875" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.46875" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.46875" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.875" style="13"/>
+    <col min="40" max="40" width="5.1171875" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.87890625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="15">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="15.75">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -11429,17 +11430,19 @@
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="12">
+        <v>12</v>
+      </c>
       <c r="J2" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N2" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O2" s="22">
         <v>74</v>
@@ -13703,14 +13706,14 @@
       <c r="G45" s="13" t="s">
         <v>3301</v>
       </c>
-      <c r="J45" s="13">
-        <v>8</v>
+      <c r="I45" s="13">
+        <v>12</v>
       </c>
       <c r="M45" s="13">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N45" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S45" s="24" t="s">
         <v>3299</v>
@@ -13809,9 +13812,6 @@
       <c r="H47" s="13" t="s">
         <v>3303</v>
       </c>
-      <c r="N47" s="13">
-        <v>1</v>
-      </c>
       <c r="S47" s="24" t="s">
         <v>3299</v>
       </c>
@@ -13859,12 +13859,6 @@
       <c r="H48" s="13" t="s">
         <v>3304</v>
       </c>
-      <c r="J48" s="13">
-        <v>8</v>
-      </c>
-      <c r="N48" s="13">
-        <v>9</v>
-      </c>
       <c r="S48" s="24" t="s">
         <v>3299</v>
       </c>
@@ -13884,6 +13878,59 @@
         <v>3297</v>
       </c>
       <c r="AC48" s="13" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A49" s="12">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C49" s="14">
+        <v>43915</v>
+      </c>
+      <c r="D49" s="14">
+        <v>43916</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I49" s="13">
+        <v>12</v>
+      </c>
+      <c r="M49" s="13">
+        <v>12</v>
+      </c>
+      <c r="S49" s="24" t="s">
+        <v>3299</v>
+      </c>
+      <c r="T49" s="14">
+        <v>43916</v>
+      </c>
+      <c r="U49" s="23" t="s">
+        <v>3397</v>
+      </c>
+      <c r="V49" t="s">
+        <v>3398</v>
+      </c>
+      <c r="AA49" s="13" t="s">
+        <v>3296</v>
+      </c>
+      <c r="AB49" s="13" t="s">
+        <v>3297</v>
+      </c>
+      <c r="AC49" s="13" t="s">
         <v>3298</v>
       </c>
     </row>
@@ -13894,25 +13941,25 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F48" xr:uid="{B0D28F07-5235-4B2B-B8F2-FBAC99B5E579}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F49" xr:uid="{B0D28F07-5235-4B2B-B8F2-FBAC99B5E579}">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28:J28 I2:R27 L28:R28 I29:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G44 G49:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G44 G50:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H44 H49:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H44 H50:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -13925,7 +13972,7 @@
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
-          <xm:sqref>F49:F1048576</xm:sqref>
+          <xm:sqref>F50:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13942,10 +13989,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
